--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2071.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2071.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159826352005907</v>
+        <v>1.305865526199341</v>
       </c>
       <c r="B1">
-        <v>3.067760721234934</v>
+        <v>3.975365400314331</v>
       </c>
       <c r="C1">
-        <v>4.185747181453515</v>
+        <v>3.752973556518555</v>
       </c>
       <c r="D1">
-        <v>3.248212940408966</v>
+        <v>3.101295232772827</v>
       </c>
       <c r="E1">
-        <v>1.195947151186953</v>
+        <v>1.041487574577332</v>
       </c>
     </row>
   </sheetData>
